--- a/field_scale/field_data/полевые данные общая/Сухое просеивание архан 2019.xlsx
+++ b/field_scale/field_data/полевые данные общая/Сухое просеивание архан 2019.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RESEARCH_WORK\our_data\Полевые данные 2019\Ставропольский край\Агрегатный состав\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_projects\field_scale\field_data\полевые данные общая\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8F32F6-B294-4309-90AB-A74B82C9B769}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE935ADE-9A90-44FE-9F83-20DACC1AC8D9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="archangelky" localSheetId="0">Sheet1!$A$1:$O$11</definedName>
+    <definedName name="archangelky" localSheetId="0">Sheet1!$A$1:$N$10</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -54,26 +54,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="22">
   <si>
     <t>размер_агрегатов</t>
   </si>
   <si>
-    <t>СПК_Архангельский_поле_1_%</t>
-  </si>
-  <si>
-    <t>СПК_Архангельский_поле_2_%</t>
-  </si>
-  <si>
-    <t>СПК_Архангельский_поле_3_%</t>
-  </si>
-  <si>
-    <t>СПК_Архангельский_поле_4_%</t>
-  </si>
-  <si>
-    <t>СПК_Архангельский_поле_5_%</t>
-  </si>
-  <si>
     <t>&gt;10мм</t>
   </si>
   <si>
@@ -101,9 +86,6 @@
     <t>&lt;0.25</t>
   </si>
   <si>
-    <t>сумма</t>
-  </si>
-  <si>
     <t>Архангельский ТТ 2019 повторность 1</t>
   </si>
   <si>
@@ -119,9 +101,6 @@
     <t>Архангельский ТТ 2019 повторность 5</t>
   </si>
   <si>
-    <t>размер_агрегатов+D45B45A1:D40A1:C44AA1:C45</t>
-  </si>
-  <si>
     <t>Архангельский ПП 2019 повторность 1</t>
   </si>
   <si>
@@ -135,6 +114,12 @@
   </si>
   <si>
     <t>Архангельский ПП 2019 повторность 5</t>
+  </si>
+  <si>
+    <t>повторность</t>
+  </si>
+  <si>
+    <t>вес</t>
   </si>
 </sst>
 </file>
@@ -170,9 +155,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -457,719 +441,886 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.42578125" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1965</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>162</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>152</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>196</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>163</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>269</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>305</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>93</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>173</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1909</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>186</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13">
-        <v>1909</v>
-      </c>
-      <c r="C13" s="1"/>
+        <v>162</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B14">
-        <v>186</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>209</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B15">
-        <v>162</v>
-      </c>
-      <c r="C15" s="1"/>
+        <v>166</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B16">
-        <v>209</v>
-      </c>
-      <c r="C16" s="1"/>
+        <v>241</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B17">
-        <v>166</v>
-      </c>
-      <c r="C17" s="1"/>
+        <v>212</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>117</v>
+      </c>
+      <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="B18">
-        <v>241</v>
-      </c>
-      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B19">
-        <v>212</v>
-      </c>
-      <c r="C19" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B20">
-        <v>117</v>
-      </c>
-      <c r="C20" s="1"/>
+        <v>1260</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B21">
-        <v>149</v>
-      </c>
-      <c r="C21" s="1"/>
+        <v>229</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>194</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>18</v>
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>278</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24">
-        <v>1260</v>
-      </c>
-      <c r="C24" s="1"/>
+        <v>225</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25">
-        <v>229</v>
-      </c>
-      <c r="C25" s="1"/>
+        <v>604</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26">
-        <v>194</v>
-      </c>
-      <c r="C26" s="1"/>
+        <v>168</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27">
-        <v>278</v>
-      </c>
-      <c r="C27" s="1"/>
+        <v>259</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28">
-        <v>225</v>
-      </c>
-      <c r="C28" s="1"/>
+        <v>268</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B29">
-        <v>604</v>
-      </c>
-      <c r="C29" s="1"/>
+        <v>1485</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B30">
-        <v>168</v>
-      </c>
-      <c r="C30" s="1"/>
+        <v>196</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>169</v>
+      </c>
+      <c r="C31" t="s">
         <v>13</v>
       </c>
-      <c r="B31">
-        <v>259</v>
-      </c>
-      <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B32">
-        <v>268</v>
-      </c>
-      <c r="C32" s="1"/>
+        <v>198</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>161</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" t="s">
-        <v>19</v>
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>377</v>
       </c>
       <c r="C34" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B35">
-        <v>1485</v>
-      </c>
-      <c r="C35" s="1"/>
+        <v>176</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B36">
-        <v>196</v>
-      </c>
-      <c r="C36" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B37">
-        <v>169</v>
-      </c>
-      <c r="C37" s="1"/>
+        <v>147</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B38">
-        <v>198</v>
-      </c>
-      <c r="C38" s="1"/>
+        <v>2299</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B39">
-        <v>161</v>
-      </c>
-      <c r="C39" s="1"/>
+        <v>233</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B40">
-        <v>377</v>
-      </c>
-      <c r="C40" s="1"/>
+        <v>170</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B41">
-        <v>176</v>
-      </c>
-      <c r="C41" s="1"/>
+        <v>232</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B42">
-        <v>102</v>
-      </c>
-      <c r="C42" s="1"/>
+        <v>165</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>310</v>
+      </c>
+      <c r="C43" t="s">
         <v>14</v>
       </c>
-      <c r="B43">
-        <v>147</v>
-      </c>
-      <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <v>438</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" t="s">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B46">
-        <v>2299</v>
-      </c>
-      <c r="C46" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B47">
-        <v>233</v>
-      </c>
-      <c r="C47" s="1"/>
+        <v>2519</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B48">
-        <v>170</v>
-      </c>
-      <c r="C48" s="1"/>
+        <v>300</v>
+      </c>
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B49">
-        <v>232</v>
-      </c>
-      <c r="C49" s="1"/>
+        <v>279</v>
+      </c>
+      <c r="C49" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B50">
-        <v>165</v>
-      </c>
-      <c r="C50" s="1"/>
+        <v>395</v>
+      </c>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B51">
-        <v>310</v>
-      </c>
-      <c r="C51" s="1"/>
+        <v>228</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B52">
-        <v>438</v>
-      </c>
-      <c r="C52" s="1"/>
+        <v>343</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B53">
-        <v>53</v>
-      </c>
-      <c r="C53" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B54">
-        <v>54</v>
-      </c>
-      <c r="C54" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55">
+        <v>225</v>
+      </c>
+      <c r="C55" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>21</v>
-      </c>
-      <c r="B56" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>1629</v>
       </c>
       <c r="C56" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B57">
-        <v>2519</v>
-      </c>
-      <c r="C57" s="1"/>
+        <v>254</v>
+      </c>
+      <c r="C57" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B58">
-        <v>300</v>
-      </c>
-      <c r="C58" s="1"/>
+        <v>203</v>
+      </c>
+      <c r="C58" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B59">
-        <v>279</v>
-      </c>
-      <c r="C59" s="1"/>
+        <v>270</v>
+      </c>
+      <c r="C59" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B60">
-        <v>395</v>
-      </c>
-      <c r="C60" s="1"/>
+        <v>162</v>
+      </c>
+      <c r="C60" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B61">
-        <v>228</v>
-      </c>
-      <c r="C61" s="1"/>
+        <v>258</v>
+      </c>
+      <c r="C61" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B62">
-        <v>343</v>
-      </c>
-      <c r="C62" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="C62" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B63">
-        <v>37</v>
-      </c>
-      <c r="C63" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="C63" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B64">
-        <v>116</v>
-      </c>
-      <c r="C64" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="C64" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B65">
-        <v>225</v>
-      </c>
-      <c r="C65" s="1"/>
+        <v>1982</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="B66">
+        <v>310</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" t="s">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="B67">
+        <v>278</v>
       </c>
       <c r="C67" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B68">
-        <v>1629</v>
-      </c>
-      <c r="C68" s="1"/>
+        <v>274</v>
+      </c>
+      <c r="C68" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B69">
-        <v>254</v>
-      </c>
-      <c r="C69" s="1"/>
+        <v>215</v>
+      </c>
+      <c r="C69" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B70">
-        <v>203</v>
-      </c>
-      <c r="C70" s="1"/>
+        <v>349</v>
+      </c>
+      <c r="C70" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B71">
-        <v>270</v>
-      </c>
-      <c r="C71" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="C71" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B72">
-        <v>162</v>
-      </c>
-      <c r="C72" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="C72" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B73">
-        <v>258</v>
-      </c>
-      <c r="C73" s="1"/>
+        <v>151</v>
+      </c>
+      <c r="C73" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B74">
-        <v>28</v>
-      </c>
-      <c r="C74" s="1"/>
+        <v>2165</v>
+      </c>
+      <c r="C74" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B75">
-        <v>64</v>
-      </c>
-      <c r="C75" s="1"/>
+        <v>233</v>
+      </c>
+      <c r="C75" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B76">
-        <v>72</v>
-      </c>
-      <c r="C76" s="1"/>
+        <v>244</v>
+      </c>
+      <c r="C76" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="B77">
+        <v>236</v>
+      </c>
+      <c r="C77" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" t="s">
-        <v>24</v>
+        <v>5</v>
+      </c>
+      <c r="B78">
+        <v>171</v>
       </c>
       <c r="C78" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1177,279 +1328,142 @@
         <v>6</v>
       </c>
       <c r="B79">
-        <v>1982</v>
-      </c>
-      <c r="C79" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="C79" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>7</v>
       </c>
       <c r="B80">
-        <v>310</v>
-      </c>
-      <c r="C80" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C80" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>8</v>
       </c>
       <c r="B81">
-        <v>278</v>
-      </c>
-      <c r="C81" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="C81" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>9</v>
       </c>
       <c r="B82">
-        <v>274</v>
-      </c>
-      <c r="C82" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="C82" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B83">
-        <v>215</v>
-      </c>
-      <c r="C83" s="1"/>
+        <v>1711</v>
+      </c>
+      <c r="C83" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B84">
-        <v>349</v>
-      </c>
-      <c r="C84" s="1"/>
+        <v>209</v>
+      </c>
+      <c r="C84" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B85">
-        <v>30</v>
-      </c>
-      <c r="C85" s="1"/>
+        <v>213</v>
+      </c>
+      <c r="C85" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B86">
-        <v>99</v>
-      </c>
-      <c r="C86" s="1"/>
+        <v>242</v>
+      </c>
+      <c r="C86" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B87">
-        <v>151</v>
-      </c>
-      <c r="C87" s="1"/>
+        <v>185</v>
+      </c>
+      <c r="C87" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="B88">
+        <v>227</v>
+      </c>
+      <c r="C88" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B89" t="s">
-        <v>25</v>
+        <v>7</v>
+      </c>
+      <c r="B89">
+        <v>85</v>
       </c>
       <c r="C89" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B90">
-        <v>2165</v>
-      </c>
-      <c r="C90" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="C90" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B91">
-        <v>233</v>
-      </c>
-      <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>8</v>
-      </c>
-      <c r="B92">
-        <v>244</v>
-      </c>
-      <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>9</v>
-      </c>
-      <c r="B93">
-        <v>236</v>
-      </c>
-      <c r="C93" s="1"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>10</v>
-      </c>
-      <c r="B94">
-        <v>171</v>
-      </c>
-      <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>11</v>
-      </c>
-      <c r="B95">
-        <v>127</v>
-      </c>
-      <c r="C95" s="1"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>12</v>
-      </c>
-      <c r="B96">
-        <v>25</v>
-      </c>
-      <c r="C96" s="1"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>13</v>
-      </c>
-      <c r="B97">
-        <v>74</v>
-      </c>
-      <c r="C97" s="1"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>14</v>
-      </c>
-      <c r="B98">
-        <v>96</v>
-      </c>
-      <c r="C98" s="1"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B100" t="s">
-        <v>26</v>
-      </c>
-      <c r="C100" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>6</v>
-      </c>
-      <c r="B101">
-        <v>1711</v>
-      </c>
-      <c r="C101" s="1"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>7</v>
-      </c>
-      <c r="B102">
-        <v>209</v>
-      </c>
-      <c r="C102" s="1"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>8</v>
-      </c>
-      <c r="B103">
-        <v>213</v>
-      </c>
-      <c r="C103" s="1"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>9</v>
-      </c>
-      <c r="B104">
-        <v>242</v>
-      </c>
-      <c r="C104" s="1"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B105">
-        <v>185</v>
-      </c>
-      <c r="C105" s="1"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>11</v>
-      </c>
-      <c r="B106">
-        <v>227</v>
-      </c>
-      <c r="C106" s="1"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>12</v>
-      </c>
-      <c r="B107">
-        <v>85</v>
-      </c>
-      <c r="C107" s="1"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>13</v>
-      </c>
-      <c r="B108">
-        <v>78</v>
-      </c>
-      <c r="C108" s="1"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>14</v>
-      </c>
-      <c r="B109">
         <v>71</v>
       </c>
-      <c r="C109" s="1"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>15</v>
+      <c r="C91" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
